--- a/Code/Results/Cases/Case_1_82/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_82/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.27068142466272</v>
+        <v>20.32277192010044</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.401608052327437</v>
+        <v>8.410951872629912</v>
       </c>
       <c r="E2">
-        <v>12.73821255036865</v>
+        <v>13.96188322726679</v>
       </c>
       <c r="F2">
-        <v>32.19127010224013</v>
+        <v>39.06149444435218</v>
       </c>
       <c r="G2">
-        <v>49.70964359816835</v>
+        <v>47.62117084523594</v>
       </c>
       <c r="H2">
-        <v>13.77518666977913</v>
+        <v>18.39160454364103</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.131213376963506</v>
+        <v>10.56361244083334</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.51982304045927</v>
+        <v>12.547557784578</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.17609768482282</v>
+        <v>19.12088269987375</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.09751748096971</v>
+        <v>20.05608844264176</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.130404709163962</v>
+        <v>8.336272933928003</v>
       </c>
       <c r="E3">
-        <v>12.33002389974548</v>
+        <v>13.84732200560935</v>
       </c>
       <c r="F3">
-        <v>30.88560931484496</v>
+        <v>38.97729172611429</v>
       </c>
       <c r="G3">
-        <v>46.87607771967506</v>
+        <v>47.12819656069399</v>
       </c>
       <c r="H3">
-        <v>13.32095485429907</v>
+        <v>18.38275860173212</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.991239463616158</v>
+        <v>10.53253069326606</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.60077957000209</v>
+        <v>12.34254719339289</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.34267300126245</v>
+        <v>19.17819226176731</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.34991869944743</v>
+        <v>19.89459987599795</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.96033605005391</v>
+        <v>8.289404827876316</v>
       </c>
       <c r="E4">
-        <v>12.07410165952344</v>
+        <v>13.77589216511185</v>
       </c>
       <c r="F4">
-        <v>30.09760471975681</v>
+        <v>38.93795848016762</v>
       </c>
       <c r="G4">
-        <v>45.11425799245801</v>
+        <v>46.841555301432</v>
       </c>
       <c r="H4">
-        <v>13.0502641851765</v>
+        <v>18.38228255020807</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.904837528199134</v>
+        <v>10.51342870951684</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.00577222754918</v>
+        <v>12.21706634066093</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.44912136556802</v>
+        <v>19.21563154905846</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.03863778234901</v>
+        <v>19.82943400860134</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.890147833243006</v>
+        <v>8.270056109846111</v>
       </c>
       <c r="E5">
-        <v>11.96852955237481</v>
+        <v>13.74652173096295</v>
       </c>
       <c r="F5">
-        <v>29.78020709158361</v>
+        <v>38.92504302474589</v>
       </c>
       <c r="G5">
-        <v>44.39143775095595</v>
+        <v>46.72890923791465</v>
       </c>
       <c r="H5">
-        <v>12.94207516387478</v>
+        <v>18.38333287801872</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.869519838004001</v>
+        <v>10.50564177109159</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.75549966966932</v>
+        <v>12.1660932542377</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.49354555880733</v>
+        <v>19.23145559546908</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.98655745755471</v>
+        <v>19.81865420605066</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.878440172483066</v>
+        <v>8.266828361022885</v>
       </c>
       <c r="E6">
-        <v>11.95092364039849</v>
+        <v>13.74162929596962</v>
       </c>
       <c r="F6">
-        <v>29.7277370648088</v>
+        <v>38.92308647355866</v>
       </c>
       <c r="G6">
-        <v>44.27114336735102</v>
+        <v>46.71045936938808</v>
       </c>
       <c r="H6">
-        <v>12.92424017029705</v>
+        <v>18.38358236917166</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.8636490650861</v>
+        <v>10.50434864084778</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.71346867161694</v>
+        <v>12.15764076828648</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.5009852484643</v>
+        <v>19.23411746161657</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.3457471439028</v>
+        <v>19.89371832890266</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.959393028133045</v>
+        <v>8.28914488734034</v>
       </c>
       <c r="E7">
-        <v>12.07268299307349</v>
+        <v>13.77549711139877</v>
       </c>
       <c r="F7">
-        <v>30.09330872177369</v>
+        <v>38.93777169138622</v>
       </c>
       <c r="G7">
-        <v>45.10452846197533</v>
+        <v>46.84001910280563</v>
       </c>
       <c r="H7">
-        <v>13.04879645172</v>
+        <v>18.38229168019006</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.904361649102443</v>
+        <v>10.51332370091337</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.00242865576106</v>
+        <v>12.216378164648</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.44971625523078</v>
+        <v>19.21584265939863</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.87195278828341</v>
+        <v>20.23039627844654</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.308835816364397</v>
+        <v>8.385416578730389</v>
       </c>
       <c r="E8">
-        <v>12.59859323934397</v>
+        <v>13.92261542830583</v>
       </c>
       <c r="F8">
-        <v>31.73839625058838</v>
+        <v>39.02989748841628</v>
       </c>
       <c r="G8">
-        <v>48.73753761908874</v>
+        <v>47.44794241329232</v>
       </c>
       <c r="H8">
-        <v>13.61689489032798</v>
+        <v>18.3875251838652</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.083048677729801</v>
+        <v>10.55290015520269</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.20926062103341</v>
+        <v>12.47682470333403</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.23266506300912</v>
+        <v>19.14017656408703</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.64149238839651</v>
+        <v>20.90520759882992</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.966107726200605</v>
+        <v>8.565911073574101</v>
       </c>
       <c r="E9">
-        <v>13.58645180399424</v>
+        <v>14.2019730235665</v>
       </c>
       <c r="F9">
-        <v>35.06307656277342</v>
+        <v>39.30838098474015</v>
       </c>
       <c r="G9">
-        <v>55.66796534762909</v>
+        <v>48.76131212362323</v>
       </c>
       <c r="H9">
-        <v>14.79415002100714</v>
+        <v>18.43714677306584</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.42967088902936</v>
+        <v>10.63029480051526</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.33617030207208</v>
+        <v>12.98802842638683</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.84031901440866</v>
+        <v>19.00960275785175</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.53468599173646</v>
+        <v>21.405439408953</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.433070339042683</v>
+        <v>8.693151448902372</v>
       </c>
       <c r="E10">
-        <v>14.28493372149875</v>
+        <v>14.40098424447451</v>
       </c>
       <c r="F10">
-        <v>37.55746137829262</v>
+        <v>39.57197335339674</v>
       </c>
       <c r="G10">
-        <v>60.62974230316192</v>
+        <v>49.79140384113237</v>
       </c>
       <c r="H10">
-        <v>15.69626800631073</v>
+        <v>18.49759658161484</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.682095357266254</v>
+        <v>10.68692736310918</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.75886997763939</v>
+        <v>13.36038956413498</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.57274077873088</v>
+        <v>18.92445347256981</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.41191250996811</v>
+        <v>21.63304250576651</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.642558121404411</v>
+        <v>8.749806099132899</v>
       </c>
       <c r="E11">
-        <v>14.59694258828328</v>
+        <v>14.49002842489072</v>
       </c>
       <c r="F11">
-        <v>38.70326858614666</v>
+        <v>39.70448377127713</v>
       </c>
       <c r="G11">
-        <v>62.86015880197458</v>
+        <v>50.27217677839214</v>
       </c>
       <c r="H11">
-        <v>16.11491240578388</v>
+        <v>18.53028644436727</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.796548938063815</v>
+        <v>10.71261978954192</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>17.37725966848019</v>
+        <v>13.52837630023341</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.45562547956238</v>
+        <v>18.88804348991134</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.74847571368358</v>
+        <v>21.71916032052535</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.721525995412222</v>
+        <v>8.771077788836818</v>
       </c>
       <c r="E12">
-        <v>14.7143072706604</v>
+        <v>14.52352175171308</v>
       </c>
       <c r="F12">
-        <v>39.13885459329307</v>
+        <v>39.75645026809722</v>
       </c>
       <c r="G12">
-        <v>63.70127840899271</v>
+        <v>50.4558119080881</v>
       </c>
       <c r="H12">
-        <v>16.27468270767394</v>
+        <v>18.54340830042366</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.839851258023595</v>
+        <v>10.72233683933018</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.60743100499104</v>
+        <v>13.59173037539505</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.41195329553983</v>
+        <v>18.8745892015017</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.67624199310757</v>
+        <v>21.70061765072277</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.704533718213261</v>
+        <v>8.76650474196542</v>
       </c>
       <c r="E13">
-        <v>14.6890648151773</v>
+        <v>14.51631859373894</v>
       </c>
       <c r="F13">
-        <v>39.04496536393935</v>
+        <v>39.74517926927993</v>
       </c>
       <c r="G13">
-        <v>63.52027582870024</v>
+        <v>50.4161954632234</v>
       </c>
       <c r="H13">
-        <v>16.240217041836</v>
+        <v>18.54054929933282</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.830526737146215</v>
+        <v>10.72024467045052</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>17.5580349160319</v>
+        <v>13.57809833888188</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.42132852278341</v>
+        <v>18.87747201044624</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.43971519590926</v>
+        <v>21.64012931807587</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.649061667193029</v>
+        <v>8.751559817333012</v>
       </c>
       <c r="E14">
-        <v>14.60661371350687</v>
+        <v>14.49278853351543</v>
       </c>
       <c r="F14">
-        <v>38.73906963785521</v>
+        <v>39.70872340999222</v>
       </c>
       <c r="G14">
-        <v>62.92942547206967</v>
+        <v>50.287253954427</v>
       </c>
       <c r="H14">
-        <v>16.12803156489663</v>
+        <v>18.53135112199972</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.800112111464845</v>
+        <v>10.71341947167862</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>17.39627528152784</v>
+        <v>13.53359398485311</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.45201888638552</v>
+        <v>18.88692992125124</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.29409741538993</v>
+        <v>21.60306702904324</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.615038601222931</v>
+        <v>8.742381726120579</v>
       </c>
       <c r="E15">
-        <v>14.55600913781443</v>
+        <v>14.47834593914623</v>
       </c>
       <c r="F15">
-        <v>38.55192489626716</v>
+        <v>39.68662517162129</v>
       </c>
       <c r="G15">
-        <v>62.56707171980327</v>
+        <v>50.20847369943995</v>
       </c>
       <c r="H15">
-        <v>16.05947813208879</v>
+        <v>18.52581360045647</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.781477793813233</v>
+        <v>10.70923720152669</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>17.29667650437662</v>
+        <v>13.50629841657439</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.4709062346364</v>
+        <v>18.89276655381667</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.47980175710836</v>
+        <v>21.39055929122136</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.419325611749013</v>
+        <v>8.689423744083202</v>
       </c>
       <c r="E16">
-        <v>14.26443060799454</v>
+        <v>14.39513405004622</v>
       </c>
       <c r="F16">
-        <v>37.48280955894487</v>
+        <v>39.56356504853679</v>
       </c>
       <c r="G16">
-        <v>60.48346732293024</v>
+        <v>49.76021440536562</v>
       </c>
       <c r="H16">
-        <v>15.66907844198533</v>
+        <v>18.49556439735504</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.674609141806956</v>
+        <v>10.68524671940552</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.7178889680384</v>
+        <v>13.34937807230661</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.58048841382518</v>
+        <v>18.92687965240484</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.99536026283132</v>
+        <v>21.26014883854739</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.298548507775392</v>
+        <v>8.656617241659713</v>
       </c>
       <c r="E17">
-        <v>14.0841085534769</v>
+        <v>14.34369683276811</v>
       </c>
       <c r="F17">
-        <v>36.82982243286153</v>
+        <v>39.49128284424743</v>
       </c>
       <c r="G17">
-        <v>59.19858925638475</v>
+        <v>49.48821777169488</v>
       </c>
       <c r="H17">
-        <v>15.43172297633423</v>
+        <v>18.47833481196771</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.608961294786985</v>
+        <v>10.67050995581421</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>16.35554065138504</v>
+        <v>13.25271189881111</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.64890294563387</v>
+        <v>18.94840171303264</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.71381131514109</v>
+        <v>21.18514894457243</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.228799694230759</v>
+        <v>8.637632589709687</v>
       </c>
       <c r="E18">
-        <v>13.97984882612059</v>
+        <v>14.31397224290685</v>
       </c>
       <c r="F18">
-        <v>36.4552743969857</v>
+        <v>39.45089577101479</v>
       </c>
       <c r="G18">
-        <v>58.4570134163758</v>
+        <v>49.3329294805474</v>
       </c>
       <c r="H18">
-        <v>15.29597551077521</v>
+        <v>18.46891368083384</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.571165757858418</v>
+        <v>10.66202729356855</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>16.14440692672764</v>
+        <v>13.19698336384936</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.68868583376712</v>
+        <v>18.96099951298753</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.61798326097793</v>
+        <v>21.15975914980903</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.205134082822239</v>
+        <v>8.631185098350686</v>
       </c>
       <c r="E19">
-        <v>13.94445414944174</v>
+        <v>14.30388445600559</v>
       </c>
       <c r="F19">
-        <v>36.32863493602274</v>
+        <v>39.43742608150713</v>
       </c>
       <c r="G19">
-        <v>58.20548338153196</v>
+        <v>49.28055552593253</v>
       </c>
       <c r="H19">
-        <v>15.2501455688746</v>
+        <v>18.46580790327108</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.558362188602612</v>
+        <v>10.65915416138686</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>16.07244933636853</v>
+        <v>13.17809431716351</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.70222955265539</v>
+        <v>18.96530253323139</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.047231029844</v>
+        <v>21.27403091247988</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.311434130027385</v>
+        <v>8.660121516045304</v>
       </c>
       <c r="E20">
-        <v>14.10336015917636</v>
+        <v>14.34918691265459</v>
       </c>
       <c r="F20">
-        <v>36.89922674287578</v>
+        <v>39.49885464709826</v>
       </c>
       <c r="G20">
-        <v>59.33562848757129</v>
+        <v>49.51705379230044</v>
       </c>
       <c r="H20">
-        <v>15.45690960361769</v>
+        <v>18.4801183569978</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.615953322001738</v>
+        <v>10.67207939337052</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.39439383492064</v>
+        <v>13.26301592119493</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.64157522817574</v>
+        <v>18.94608800653802</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.5093424181123</v>
+        <v>21.65789872606549</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.665364361239874</v>
+        <v>8.755954493253691</v>
       </c>
       <c r="E21">
-        <v>14.6308525279419</v>
+        <v>14.49970610411614</v>
       </c>
       <c r="F21">
-        <v>38.82887137014158</v>
+        <v>39.71938307327569</v>
       </c>
       <c r="G21">
-        <v>63.10306351491863</v>
+        <v>50.32508580535134</v>
       </c>
       <c r="H21">
-        <v>16.16094896400275</v>
+        <v>18.53403272020541</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.809046521241369</v>
+        <v>10.7154245432223</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>17.44389533181652</v>
+        <v>13.54667346133359</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.44298588616194</v>
+        <v>18.88414286294585</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.47852135762416</v>
+        <v>21.90833312679682</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.894618085768066</v>
+        <v>8.817522365968369</v>
       </c>
       <c r="E22">
-        <v>14.97104991427957</v>
+        <v>14.5967577361455</v>
       </c>
       <c r="F22">
-        <v>40.09999902574401</v>
+        <v>39.87391743975512</v>
       </c>
       <c r="G22">
-        <v>65.58249896692514</v>
+        <v>50.86229063634139</v>
       </c>
       <c r="H22">
-        <v>16.6283495587328</v>
+        <v>18.57359681743677</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.935030301059509</v>
+        <v>10.74368152574982</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>18.10657222285236</v>
+        <v>13.73052651148821</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.31715000602961</v>
+        <v>18.84560092615136</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.96423334827539</v>
+        <v>21.77473724698485</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.7724244890751</v>
+        <v>8.784761675122935</v>
       </c>
       <c r="E23">
-        <v>14.78987801053075</v>
+        <v>14.54508424923576</v>
       </c>
       <c r="F23">
-        <v>39.42060022044615</v>
+        <v>39.79049627366369</v>
       </c>
       <c r="G23">
-        <v>64.25293045636643</v>
+        <v>50.57479885796228</v>
       </c>
       <c r="H23">
-        <v>16.37819778679867</v>
+        <v>18.55208612799562</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.867803086466125</v>
+        <v>10.72860747422035</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.7549633460997</v>
+        <v>13.63255924761635</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.3839437808069</v>
+        <v>18.8659940160939</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.02378971816508</v>
+        <v>21.26775489944498</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.305609517815036</v>
+        <v>8.658537618639395</v>
       </c>
       <c r="E24">
-        <v>14.09465834908811</v>
+        <v>14.34670532209632</v>
       </c>
       <c r="F24">
-        <v>36.86784637239916</v>
+        <v>39.49542779227436</v>
       </c>
       <c r="G24">
-        <v>59.27368205307609</v>
+        <v>49.50401363091305</v>
       </c>
       <c r="H24">
-        <v>15.44552051702073</v>
+        <v>18.47931050727622</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.612792394859051</v>
+        <v>10.6713698825802</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.37683708882274</v>
+        <v>13.25835794756006</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.64488668720475</v>
+        <v>18.94713333396653</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.91691723098368</v>
+        <v>20.72155213141234</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.791223415061952</v>
+        <v>8.518003037335426</v>
       </c>
       <c r="E25">
-        <v>13.32400399816065</v>
+        <v>14.12744652260084</v>
       </c>
       <c r="F25">
-        <v>34.15422781641293</v>
+        <v>39.22262309822023</v>
       </c>
       <c r="G25">
-        <v>53.81578299601569</v>
+        <v>48.39390768073553</v>
       </c>
       <c r="H25">
-        <v>14.46911167558032</v>
+        <v>18.41950550369552</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.33631252134721</v>
+        <v>10.60939050891336</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.78584411021614</v>
+        <v>12.85005185181761</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.94286228658109</v>
+        <v>19.04302765841837</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_82/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_82/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.32277192010044</v>
+        <v>20.27068142466274</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.410951872629912</v>
+        <v>7.401608052327502</v>
       </c>
       <c r="E2">
-        <v>13.96188322726679</v>
+        <v>12.73821255036875</v>
       </c>
       <c r="F2">
-        <v>39.06149444435218</v>
+        <v>32.19127010224017</v>
       </c>
       <c r="G2">
-        <v>47.62117084523594</v>
+        <v>49.70964359816841</v>
       </c>
       <c r="H2">
-        <v>18.39160454364103</v>
+        <v>13.77518666977915</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.56361244083334</v>
+        <v>8.131213376963588</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.547557784578</v>
+        <v>13.51982304045928</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.12088269987375</v>
+        <v>13.17609768482281</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.05608844264176</v>
+        <v>19.09751748096971</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.336272933928003</v>
+        <v>7.13040470916408</v>
       </c>
       <c r="E3">
-        <v>13.84732200560935</v>
+        <v>12.33002389974547</v>
       </c>
       <c r="F3">
-        <v>38.97729172611429</v>
+        <v>30.885609314845</v>
       </c>
       <c r="G3">
-        <v>47.12819656069399</v>
+        <v>46.87607771967506</v>
       </c>
       <c r="H3">
-        <v>18.38275860173212</v>
+        <v>13.32095485429907</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.53253069326606</v>
+        <v>7.991239463616089</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.34254719339289</v>
+        <v>12.60077957000207</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.17819226176731</v>
+        <v>13.34267300126248</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.89459987599795</v>
+        <v>18.34991869944741</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.289404827876316</v>
+        <v>6.960336050053914</v>
       </c>
       <c r="E4">
-        <v>13.77589216511185</v>
+        <v>12.07410165952339</v>
       </c>
       <c r="F4">
-        <v>38.93795848016762</v>
+        <v>30.09760471975671</v>
       </c>
       <c r="G4">
-        <v>46.841555301432</v>
+        <v>45.11425799245799</v>
       </c>
       <c r="H4">
-        <v>18.38228255020807</v>
+        <v>13.05026418517645</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.51342870951684</v>
+        <v>7.904837528199073</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.21706634066093</v>
+        <v>12.00577222754922</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.21563154905846</v>
+        <v>13.44912136556793</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.82943400860134</v>
+        <v>18.03863778234895</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.270056109846111</v>
+        <v>6.890147833243192</v>
       </c>
       <c r="E5">
-        <v>13.74652173096295</v>
+        <v>11.96852955237494</v>
       </c>
       <c r="F5">
-        <v>38.92504302474589</v>
+        <v>29.78020709158337</v>
       </c>
       <c r="G5">
-        <v>46.72890923791465</v>
+        <v>44.39143775095576</v>
       </c>
       <c r="H5">
-        <v>18.38333287801872</v>
+        <v>12.94207516387467</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.50564177109159</v>
+        <v>7.869519838004099</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.1660932542377</v>
+        <v>11.75549966966937</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.23145559546908</v>
+        <v>13.4935455588073</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.81865420605066</v>
+        <v>17.98655745755468</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.266828361022885</v>
+        <v>6.878440172483004</v>
       </c>
       <c r="E6">
-        <v>13.74162929596962</v>
+        <v>11.95092364039836</v>
       </c>
       <c r="F6">
-        <v>38.92308647355866</v>
+        <v>29.72773706480879</v>
       </c>
       <c r="G6">
-        <v>46.71045936938808</v>
+        <v>44.27114336735104</v>
       </c>
       <c r="H6">
-        <v>18.38358236917166</v>
+        <v>12.92424017029707</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.50434864084778</v>
+        <v>7.863649065086069</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.15764076828648</v>
+        <v>11.71346867161685</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.23411746161657</v>
+        <v>13.50098524846428</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.89371832890266</v>
+        <v>18.34574714390282</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.28914488734034</v>
+        <v>6.959393028133039</v>
       </c>
       <c r="E7">
-        <v>13.77549711139877</v>
+        <v>12.07268299307342</v>
       </c>
       <c r="F7">
-        <v>38.93777169138622</v>
+        <v>30.0933087217737</v>
       </c>
       <c r="G7">
-        <v>46.84001910280563</v>
+        <v>45.10452846197529</v>
       </c>
       <c r="H7">
-        <v>18.38229168019006</v>
+        <v>13.04879645172003</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.51332370091337</v>
+        <v>7.904361649102413</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.216378164648</v>
+        <v>12.00242865576104</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.21584265939863</v>
+        <v>13.44971625523074</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.23039627844654</v>
+        <v>19.87195278828338</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.385416578730389</v>
+        <v>7.308835816364523</v>
       </c>
       <c r="E8">
-        <v>13.92261542830583</v>
+        <v>12.59859323934397</v>
       </c>
       <c r="F8">
-        <v>39.02989748841628</v>
+        <v>31.73839625058821</v>
       </c>
       <c r="G8">
-        <v>47.44794241329232</v>
+        <v>48.73753761908867</v>
       </c>
       <c r="H8">
-        <v>18.3875251838652</v>
+        <v>13.6168948903279</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.55290015520269</v>
+        <v>8.083048677729767</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.47682470333403</v>
+        <v>13.20926062103348</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.14017656408703</v>
+        <v>13.23266506300905</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.90520759882992</v>
+        <v>22.64149238839651</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.565911073574101</v>
+        <v>7.966107726200665</v>
       </c>
       <c r="E9">
-        <v>14.2019730235665</v>
+        <v>13.58645180399429</v>
       </c>
       <c r="F9">
-        <v>39.30838098474015</v>
+        <v>35.06307656277342</v>
       </c>
       <c r="G9">
-        <v>48.76131212362323</v>
+        <v>55.66796534762908</v>
       </c>
       <c r="H9">
-        <v>18.43714677306584</v>
+        <v>14.79415002100713</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.63029480051526</v>
+        <v>8.42967088902936</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.98802842638683</v>
+        <v>15.33617030207204</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.00960275785175</v>
+        <v>12.84031901440861</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.405439408953</v>
+        <v>24.53468599173643</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.693151448902372</v>
+        <v>8.433070339042645</v>
       </c>
       <c r="E10">
-        <v>14.40098424447451</v>
+        <v>14.2849337214986</v>
       </c>
       <c r="F10">
-        <v>39.57197335339674</v>
+        <v>37.55746137829257</v>
       </c>
       <c r="G10">
-        <v>49.79140384113237</v>
+        <v>60.62974230316185</v>
       </c>
       <c r="H10">
-        <v>18.49759658161484</v>
+        <v>15.69626800631072</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.68692736310918</v>
+        <v>8.682095357266139</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.36038956413498</v>
+        <v>16.7588699776394</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.92445347256981</v>
+        <v>12.57274077873086</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.63304250576651</v>
+        <v>25.4119125099681</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.749806099132899</v>
+        <v>8.642558121404473</v>
       </c>
       <c r="E11">
-        <v>14.49002842489072</v>
+        <v>14.59694258828337</v>
       </c>
       <c r="F11">
-        <v>39.70448377127713</v>
+        <v>38.70326858614664</v>
       </c>
       <c r="G11">
-        <v>50.27217677839214</v>
+        <v>62.86015880197458</v>
       </c>
       <c r="H11">
-        <v>18.53028644436727</v>
+        <v>16.11491240578389</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.71261978954192</v>
+        <v>8.796548938063893</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.52837630023341</v>
+        <v>17.37725966848021</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.88804348991134</v>
+        <v>12.45562547956244</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.71916032052535</v>
+        <v>25.74847571368358</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.771077788836818</v>
+        <v>8.721525995412104</v>
       </c>
       <c r="E12">
-        <v>14.52352175171308</v>
+        <v>14.7143072706604</v>
       </c>
       <c r="F12">
-        <v>39.75645026809722</v>
+        <v>39.1388545932931</v>
       </c>
       <c r="G12">
-        <v>50.4558119080881</v>
+        <v>63.70127840899276</v>
       </c>
       <c r="H12">
-        <v>18.54340830042366</v>
+        <v>16.27468270767395</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.72233683933018</v>
+        <v>8.839851258023538</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.59173037539505</v>
+        <v>17.60743100499105</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.8745892015017</v>
+        <v>12.41195329553979</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.70061765072277</v>
+        <v>25.67624199310756</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.76650474196542</v>
+        <v>8.704533718213217</v>
       </c>
       <c r="E13">
-        <v>14.51631859373894</v>
+        <v>14.68906481517737</v>
       </c>
       <c r="F13">
-        <v>39.74517926927993</v>
+        <v>39.04496536393932</v>
       </c>
       <c r="G13">
-        <v>50.4161954632234</v>
+        <v>63.52027582870029</v>
       </c>
       <c r="H13">
-        <v>18.54054929933282</v>
+        <v>16.24021704183599</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.72024467045052</v>
+        <v>8.830526737146222</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.57809833888188</v>
+        <v>17.55803491603195</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.87747201044624</v>
+        <v>12.42132852278342</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.64012931807587</v>
+        <v>25.43971519590927</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.751559817333012</v>
+        <v>8.649061667193026</v>
       </c>
       <c r="E14">
-        <v>14.49278853351543</v>
+        <v>14.60661371350681</v>
       </c>
       <c r="F14">
-        <v>39.70872340999222</v>
+        <v>38.73906963785524</v>
       </c>
       <c r="G14">
-        <v>50.287253954427</v>
+        <v>62.92942547206965</v>
       </c>
       <c r="H14">
-        <v>18.53135112199972</v>
+        <v>16.12803156489664</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.71341947167862</v>
+        <v>8.800112111464793</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.53359398485311</v>
+        <v>17.3962752815278</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.88692992125124</v>
+        <v>12.45201888638546</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.60306702904324</v>
+        <v>25.29409741538996</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.742381726120579</v>
+        <v>8.615038601222992</v>
       </c>
       <c r="E15">
-        <v>14.47834593914623</v>
+        <v>14.55600913781428</v>
       </c>
       <c r="F15">
-        <v>39.68662517162129</v>
+        <v>38.55192489626715</v>
       </c>
       <c r="G15">
-        <v>50.20847369943995</v>
+        <v>62.56707171980322</v>
       </c>
       <c r="H15">
-        <v>18.52581360045647</v>
+        <v>16.05947813208879</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.70923720152669</v>
+        <v>8.781477793813208</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.50629841657439</v>
+        <v>17.29667650437661</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.89276655381667</v>
+        <v>12.4709062346364</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.39055929122136</v>
+        <v>24.47980175710836</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.689423744083202</v>
+        <v>8.41932561174897</v>
       </c>
       <c r="E16">
-        <v>14.39513405004622</v>
+        <v>14.26443060799446</v>
       </c>
       <c r="F16">
-        <v>39.56356504853679</v>
+        <v>37.48280955894485</v>
       </c>
       <c r="G16">
-        <v>49.76021440536562</v>
+        <v>60.48346732293027</v>
       </c>
       <c r="H16">
-        <v>18.49556439735504</v>
+        <v>15.66907844198533</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.68524671940552</v>
+        <v>8.674609141806902</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.34937807230661</v>
+        <v>16.71788896803848</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.92687965240484</v>
+        <v>12.58048841382516</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.26014883854739</v>
+        <v>23.99536026283132</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.656617241659713</v>
+        <v>8.298548507775436</v>
       </c>
       <c r="E17">
-        <v>14.34369683276811</v>
+        <v>14.08410855347707</v>
       </c>
       <c r="F17">
-        <v>39.49128284424743</v>
+        <v>36.82982243286153</v>
       </c>
       <c r="G17">
-        <v>49.48821777169488</v>
+        <v>59.19858925638493</v>
       </c>
       <c r="H17">
-        <v>18.47833481196771</v>
+        <v>15.43172297633422</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.67050995581421</v>
+        <v>8.608961294787109</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.25271189881111</v>
+        <v>16.35554065138513</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.94840171303264</v>
+        <v>12.64890294563386</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.18514894457243</v>
+        <v>23.7138113151411</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.637632589709687</v>
+        <v>8.228799694230762</v>
       </c>
       <c r="E18">
-        <v>14.31397224290685</v>
+        <v>13.9798488261207</v>
       </c>
       <c r="F18">
-        <v>39.45089577101479</v>
+        <v>36.45527439698565</v>
       </c>
       <c r="G18">
-        <v>49.3329294805474</v>
+        <v>58.45701341637582</v>
       </c>
       <c r="H18">
-        <v>18.46891368083384</v>
+        <v>15.29597551077516</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.66202729356855</v>
+        <v>8.571165757858507</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.19698336384936</v>
+        <v>16.14440692672762</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.96099951298753</v>
+        <v>12.68868583376712</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.15975914980903</v>
+        <v>23.61798326097795</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.631185098350686</v>
+        <v>8.205134082822347</v>
       </c>
       <c r="E19">
-        <v>14.30388445600559</v>
+        <v>13.94445414944186</v>
       </c>
       <c r="F19">
-        <v>39.43742608150713</v>
+        <v>36.32863493602274</v>
       </c>
       <c r="G19">
-        <v>49.28055552593253</v>
+        <v>58.20548338153192</v>
       </c>
       <c r="H19">
-        <v>18.46580790327108</v>
+        <v>15.2501455688746</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.65915416138686</v>
+        <v>8.558362188602672</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.17809431716351</v>
+        <v>16.07244933636855</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.96530253323139</v>
+        <v>12.7022295526554</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.27403091247988</v>
+        <v>24.047231029844</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.660121516045304</v>
+        <v>8.311434130027271</v>
       </c>
       <c r="E20">
-        <v>14.34918691265459</v>
+        <v>14.10336015917632</v>
       </c>
       <c r="F20">
-        <v>39.49885464709826</v>
+        <v>36.89922674287576</v>
       </c>
       <c r="G20">
-        <v>49.51705379230044</v>
+        <v>59.3356284875714</v>
       </c>
       <c r="H20">
-        <v>18.4801183569978</v>
+        <v>15.45690960361765</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.67207939337052</v>
+        <v>8.615953322001738</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.26301592119493</v>
+        <v>16.3943938349207</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.94608800653802</v>
+        <v>12.64157522817568</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.65789872606549</v>
+        <v>25.50934241811234</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.755954493253691</v>
+        <v>8.665364361239829</v>
       </c>
       <c r="E21">
-        <v>14.49970610411614</v>
+        <v>14.63085252794196</v>
       </c>
       <c r="F21">
-        <v>39.71938307327569</v>
+        <v>38.82887137014156</v>
       </c>
       <c r="G21">
-        <v>50.32508580535134</v>
+        <v>63.10306351491859</v>
       </c>
       <c r="H21">
-        <v>18.53403272020541</v>
+        <v>16.16094896400272</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.7154245432223</v>
+        <v>8.809046521241395</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.54667346133359</v>
+        <v>17.44389533181646</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.88414286294585</v>
+        <v>12.44298588616195</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.90833312679682</v>
+        <v>26.47852135762417</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.817522365968369</v>
+        <v>8.894618085767929</v>
       </c>
       <c r="E22">
-        <v>14.5967577361455</v>
+        <v>14.97104991427954</v>
       </c>
       <c r="F22">
-        <v>39.87391743975512</v>
+        <v>40.09999902574403</v>
       </c>
       <c r="G22">
-        <v>50.86229063634139</v>
+        <v>65.58249896692521</v>
       </c>
       <c r="H22">
-        <v>18.57359681743677</v>
+        <v>16.62834955873281</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.74368152574982</v>
+        <v>8.935030301059593</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.73052651148821</v>
+        <v>18.10657222285232</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.84560092615136</v>
+        <v>12.3171500060296</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.77473724698485</v>
+        <v>25.96423334827539</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.784761675122935</v>
+        <v>8.772424489074982</v>
       </c>
       <c r="E23">
-        <v>14.54508424923576</v>
+        <v>14.7898780105308</v>
       </c>
       <c r="F23">
-        <v>39.79049627366369</v>
+        <v>39.42060022044613</v>
       </c>
       <c r="G23">
-        <v>50.57479885796228</v>
+        <v>64.25293045636633</v>
       </c>
       <c r="H23">
-        <v>18.55208612799562</v>
+        <v>16.37819778679866</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.72860747422035</v>
+        <v>8.867803086466155</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.63255924761635</v>
+        <v>17.75496334609967</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.8659940160939</v>
+        <v>12.38394378080694</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.26775489944498</v>
+        <v>24.02378971816508</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.658537618639395</v>
+        <v>8.305609517815082</v>
       </c>
       <c r="E24">
-        <v>14.34670532209632</v>
+        <v>14.09465834908818</v>
       </c>
       <c r="F24">
-        <v>39.49542779227436</v>
+        <v>36.86784637239922</v>
       </c>
       <c r="G24">
-        <v>49.50401363091305</v>
+        <v>59.27368205307621</v>
       </c>
       <c r="H24">
-        <v>18.47931050727622</v>
+        <v>15.44552051702073</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.6713698825802</v>
+        <v>8.612792394859092</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.25835794756006</v>
+        <v>16.37683708882279</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.94713333396653</v>
+        <v>12.64488668720475</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.72155213141234</v>
+        <v>21.91691723098369</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.518003037335426</v>
+        <v>7.791223415061952</v>
       </c>
       <c r="E25">
-        <v>14.12744652260084</v>
+        <v>13.32400399816064</v>
       </c>
       <c r="F25">
-        <v>39.22262309822023</v>
+        <v>34.15422781641293</v>
       </c>
       <c r="G25">
-        <v>48.39390768073553</v>
+        <v>53.81578299601566</v>
       </c>
       <c r="H25">
-        <v>18.41950550369552</v>
+        <v>14.46911167558034</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.60939050891336</v>
+        <v>8.336312521347239</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.85005185181761</v>
+        <v>14.78584411021609</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.04302765841837</v>
+        <v>12.94286228658106</v>
       </c>
       <c r="O25">
         <v>0</v>
